--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U3U3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/4U3U3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D7797D-DE62-44C0-B768-2080F817D488}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F34B8E6-66FF-4760-B62E-FA75776F1D73}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DSPFeederMap" sheetId="5" r:id="rId1"/>
@@ -739,8 +739,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -811,8 +811,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,8 +1996,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2117,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2153,7 +2153,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2167,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2181,7 +2181,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>11</v>
